--- a/controller/src/main/resources/jxls_templates/othertwo.xlsx
+++ b/controller/src/main/resources/jxls_templates/othertwo.xlsx
@@ -45,7 +45,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>工号</t>
+    <t>卡号</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>

--- a/controller/src/main/resources/jxls_templates/othertwo.xlsx
+++ b/controller/src/main/resources/jxls_templates/othertwo.xlsx
@@ -14,13 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名字</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -45,7 +41,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>卡号</t>
+    <t>姓名</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -147,7 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -187,11 +183,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1672,862 +1663,797 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="2" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="14.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="B30" s="10"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="B31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="B34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="14.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="B36" s="10"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="B37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="B39" s="10"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="B41" s="10"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="B42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="B44" s="10"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="B46" s="10"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="B47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="14.25">
+      <c r="B48" s="9"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="B49" s="10"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="B50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" ht="14.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" ht="14.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="B52" s="10"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="B53" s="8"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="B55" s="10"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="B56" s="9"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="B57" s="9"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="B58" s="9"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="B59" s="9"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="14.25">
+      <c r="B60" s="9"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" ht="14.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" ht="14.25">
-      <c r="A62" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="11">
-        <f>SUM(D1:D61)</f>
+      <c r="B61" s="10"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" ht="14.25">
+      <c r="A62" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11">
+        <f>SUM(C1:C61)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="6"/>
+      <c r="D62" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="C26:C28">
+  <conditionalFormatting sqref="B26:B28">
     <cfRule type="duplicateValues" dxfId="116" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
+  <conditionalFormatting sqref="B26:B28">
     <cfRule type="duplicateValues" dxfId="115" priority="99"/>
     <cfRule type="duplicateValues" dxfId="114" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C19 C7:C10">
+  <conditionalFormatting sqref="B16:B19 B7:B10">
     <cfRule type="duplicateValues" dxfId="113" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21 C7:C10">
+  <conditionalFormatting sqref="B16:B21 B7:B10">
     <cfRule type="duplicateValues" dxfId="112" priority="96"/>
     <cfRule type="duplicateValues" dxfId="111" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C14">
+  <conditionalFormatting sqref="B11:B14">
     <cfRule type="duplicateValues" dxfId="110" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C15">
+  <conditionalFormatting sqref="B11:B15">
     <cfRule type="duplicateValues" dxfId="109" priority="93"/>
     <cfRule type="duplicateValues" dxfId="108" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C21">
+  <conditionalFormatting sqref="B7:B21">
     <cfRule type="duplicateValues" dxfId="107" priority="91"/>
     <cfRule type="duplicateValues" dxfId="106" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5">
+  <conditionalFormatting sqref="B2:B5">
     <cfRule type="duplicateValues" dxfId="105" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5">
+  <conditionalFormatting sqref="B2:B5">
     <cfRule type="duplicateValues" dxfId="104" priority="103"/>
     <cfRule type="duplicateValues" dxfId="103" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5">
+  <conditionalFormatting sqref="B2:B5">
     <cfRule type="duplicateValues" dxfId="102" priority="105"/>
     <cfRule type="duplicateValues" dxfId="101" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="100" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="99" priority="108"/>
     <cfRule type="duplicateValues" dxfId="98" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="97" priority="110"/>
     <cfRule type="duplicateValues" dxfId="96" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
+  <conditionalFormatting sqref="B22:B25">
     <cfRule type="duplicateValues" dxfId="95" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
+  <conditionalFormatting sqref="B22:B25">
     <cfRule type="duplicateValues" dxfId="94" priority="113"/>
     <cfRule type="duplicateValues" dxfId="93" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C28">
+  <conditionalFormatting sqref="B22:B28">
     <cfRule type="duplicateValues" dxfId="92" priority="115"/>
     <cfRule type="duplicateValues" dxfId="91" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C28">
+  <conditionalFormatting sqref="B2:B28">
     <cfRule type="duplicateValues" dxfId="90" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C60">
+  <conditionalFormatting sqref="B56:B60">
     <cfRule type="duplicateValues" dxfId="89" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C61">
+  <conditionalFormatting sqref="B56:B61">
     <cfRule type="duplicateValues" dxfId="88" priority="85"/>
     <cfRule type="duplicateValues" dxfId="87" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C61">
+  <conditionalFormatting sqref="B56:B61">
     <cfRule type="duplicateValues" dxfId="86" priority="88"/>
     <cfRule type="duplicateValues" dxfId="85" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C61">
+  <conditionalFormatting sqref="B56:B61">
     <cfRule type="duplicateValues" dxfId="84" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="B54">
     <cfRule type="duplicateValues" dxfId="83" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C55">
+  <conditionalFormatting sqref="B54:B55">
     <cfRule type="duplicateValues" dxfId="82" priority="76"/>
     <cfRule type="duplicateValues" dxfId="81" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="B51">
     <cfRule type="duplicateValues" dxfId="80" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C52">
+  <conditionalFormatting sqref="B51:B52">
     <cfRule type="duplicateValues" dxfId="79" priority="67"/>
     <cfRule type="duplicateValues" dxfId="78" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="77" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="76" priority="71"/>
     <cfRule type="duplicateValues" dxfId="75" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C53">
+  <conditionalFormatting sqref="B51:B53">
     <cfRule type="duplicateValues" dxfId="74" priority="73"/>
     <cfRule type="duplicateValues" dxfId="73" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:C53">
+  <conditionalFormatting sqref="B51:B53">
     <cfRule type="duplicateValues" dxfId="72" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46 C50">
+  <conditionalFormatting sqref="B46 B50">
     <cfRule type="duplicateValues" dxfId="71" priority="62"/>
     <cfRule type="duplicateValues" dxfId="70" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="B50">
     <cfRule type="duplicateValues" dxfId="69" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="B50">
     <cfRule type="duplicateValues" dxfId="68" priority="65"/>
     <cfRule type="duplicateValues" dxfId="67" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
+  <conditionalFormatting sqref="B43">
     <cfRule type="duplicateValues" dxfId="66" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44">
+  <conditionalFormatting sqref="B43:B44">
     <cfRule type="duplicateValues" dxfId="65" priority="53"/>
     <cfRule type="duplicateValues" dxfId="64" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="63" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="62" priority="57"/>
     <cfRule type="duplicateValues" dxfId="61" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C45">
+  <conditionalFormatting sqref="B43:B45">
     <cfRule type="duplicateValues" dxfId="60" priority="59"/>
     <cfRule type="duplicateValues" dxfId="59" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C45">
+  <conditionalFormatting sqref="B43:B45">
     <cfRule type="duplicateValues" dxfId="58" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="B40">
     <cfRule type="duplicateValues" dxfId="57" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
+  <conditionalFormatting sqref="B40:B41">
     <cfRule type="duplicateValues" dxfId="56" priority="44"/>
     <cfRule type="duplicateValues" dxfId="55" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="B42">
     <cfRule type="duplicateValues" dxfId="54" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="B42">
     <cfRule type="duplicateValues" dxfId="53" priority="48"/>
     <cfRule type="duplicateValues" dxfId="52" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C42">
+  <conditionalFormatting sqref="B40:B42">
     <cfRule type="duplicateValues" dxfId="51" priority="50"/>
     <cfRule type="duplicateValues" dxfId="50" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C42">
+  <conditionalFormatting sqref="B40:B42">
     <cfRule type="duplicateValues" dxfId="49" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="B38">
     <cfRule type="duplicateValues" dxfId="48" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
+  <conditionalFormatting sqref="B38:B39">
     <cfRule type="duplicateValues" dxfId="47" priority="41"/>
     <cfRule type="duplicateValues" dxfId="46" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="B35">
     <cfRule type="duplicateValues" dxfId="45" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C36">
+  <conditionalFormatting sqref="B35:B36">
     <cfRule type="duplicateValues" dxfId="44" priority="32"/>
     <cfRule type="duplicateValues" dxfId="43" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="B37">
     <cfRule type="duplicateValues" dxfId="42" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="B37">
     <cfRule type="duplicateValues" dxfId="41" priority="36"/>
     <cfRule type="duplicateValues" dxfId="40" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C37">
+  <conditionalFormatting sqref="B35:B37">
     <cfRule type="duplicateValues" dxfId="39" priority="38"/>
     <cfRule type="duplicateValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C37">
+  <conditionalFormatting sqref="B35:B37">
     <cfRule type="duplicateValues" dxfId="37" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="B32">
     <cfRule type="duplicateValues" dxfId="36" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C33">
+  <conditionalFormatting sqref="B32:B33">
     <cfRule type="duplicateValues" dxfId="35" priority="23"/>
     <cfRule type="duplicateValues" dxfId="34" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="B34">
     <cfRule type="duplicateValues" dxfId="33" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="B34">
     <cfRule type="duplicateValues" dxfId="32" priority="27"/>
     <cfRule type="duplicateValues" dxfId="31" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C34">
+  <conditionalFormatting sqref="B32:B34">
     <cfRule type="duplicateValues" dxfId="30" priority="29"/>
     <cfRule type="duplicateValues" dxfId="29" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C34">
+  <conditionalFormatting sqref="B32:B34">
     <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="B29">
     <cfRule type="duplicateValues" dxfId="27" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C30">
+  <conditionalFormatting sqref="B29:B30">
     <cfRule type="duplicateValues" dxfId="26" priority="14"/>
     <cfRule type="duplicateValues" dxfId="25" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="B31">
     <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="B31">
     <cfRule type="duplicateValues" dxfId="23" priority="18"/>
     <cfRule type="duplicateValues" dxfId="22" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C31">
+  <conditionalFormatting sqref="B29:B31">
     <cfRule type="duplicateValues" dxfId="21" priority="20"/>
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C31">
+  <conditionalFormatting sqref="B29:B31">
     <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="B46">
     <cfRule type="duplicateValues" dxfId="18" priority="118"/>
     <cfRule type="duplicateValues" dxfId="17" priority="119"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46 C50">
+  <conditionalFormatting sqref="B46 B50">
     <cfRule type="duplicateValues" dxfId="16" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
+  <conditionalFormatting sqref="B38:B39">
     <cfRule type="duplicateValues" dxfId="15" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C55">
+  <conditionalFormatting sqref="B54:B55">
     <cfRule type="duplicateValues" dxfId="14" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C46 C50:C61">
+  <conditionalFormatting sqref="B2:B46 B50:B61">
     <cfRule type="duplicateValues" dxfId="13" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="B48">
     <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C49">
+  <conditionalFormatting sqref="B48:B49">
     <cfRule type="duplicateValues" dxfId="11" priority="6"/>
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C49">
+  <conditionalFormatting sqref="B48:B49">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C49">
+  <conditionalFormatting sqref="B48:B49">
     <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C49">
+  <conditionalFormatting sqref="B47:B49">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
